--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3717260.452711409</v>
+        <v>3820672.18867549</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7421016.796179558</v>
+        <v>7385987.074906804</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>70.01505925776725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>50.56405588463325</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851103</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247745</v>
@@ -786,7 +788,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>64.66723292513761</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>134.2966741949077</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>320.4865678544372</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>41.96425921496945</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110.2499169269608</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>167.8496641666414</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>29.18398267186543</v>
+        <v>275.5422451161535</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.78162072956529</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>63.36372471879526</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>116.6807033268979</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>92.20984583428708</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>72.57619040703568</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>206.4851923430333</v>
       </c>
       <c r="W28" t="n">
-        <v>94.64226186542889</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>126.9927435506645</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652518</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>80.07147829118261</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>53.22824985092721</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652588</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808158</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>101.0545458193598</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>130.230107519843</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>8.61604858206983</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213862</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,25 +4330,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4364,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213862</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>523.9612719922603</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>695.4033423182299</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>695.4033423182299</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>440.718854112343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>440.718854112343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1914.140475048882</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1555.874776442131</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.355900829572</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421.4185328474558</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>661.511433255873</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>661.511433255873</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>661.511433255873</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>661.511433255873</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>661.511433255873</v>
       </c>
       <c r="X7" t="n">
-        <v>603.0669976776956</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y7" t="n">
-        <v>603.0669976776956</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549918</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482413</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>400.5199879482413</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="F8" t="n">
-        <v>393.5744871990378</v>
+        <v>684.4181157012742</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>229.3430949700587</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>229.3430949700587</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>856.8832434759674</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>635.1166280454935</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>635.1166280454935</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>380.4321398396066</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W10" t="n">
-        <v>380.4321398396066</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396066</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.9915598002984</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5413,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5783,7 +5785,7 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
@@ -5795,7 +5797,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>4151.857387650097</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3897.17289944421</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3804.031641025738</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>3576.042090127721</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>3355.249510984191</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>3025.687952571558</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>3449.581883569134</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>3376.272600329704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3723.68502131644</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>3723.68502131644</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>3495.695470418422</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>3274.902891274892</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634547</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384014</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,19 +6721,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3945.535717480307</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3656.118547443346</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3428.128996545328</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3207.336417401798</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7165,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,16 +7496,16 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2344.887784772826</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>449.1607607092168</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>31.93476969131441</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>194.3131525023039</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>146.0084629450591</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24618,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>45.65245098079473</v>
       </c>
       <c r="W28" t="n">
-        <v>191.8807364711621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>52.83923663127278</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>198.9093934729008</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.9717401822848</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>35.29403077242583</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.7894017452184</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550378</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650336.082840103</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650336.082840103</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650336.082840103</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650336.082840103</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650336.082840103</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26368,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363173</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.063298011819521e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186741</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="J4" t="n">
-        <v>14826.6960418674</v>
-      </c>
       <c r="K4" t="n">
-        <v>22817.55530496081</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496081</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753622</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="E6" t="n">
-        <v>345606.2470246265</v>
+        <v>345606.2470246262</v>
       </c>
       <c r="F6" t="n">
         <v>671018.7088319813</v>
       </c>
       <c r="G6" t="n">
+        <v>671018.7088319811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>671018.7088319811</v>
+      </c>
+      <c r="I6" t="n">
+        <v>671018.7088319818</v>
+      </c>
+      <c r="J6" t="n">
+        <v>453487.506434704</v>
+      </c>
+      <c r="K6" t="n">
         <v>671018.7088319815</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>671018.7088319812</v>
+      </c>
+      <c r="M6" t="n">
+        <v>585963.6808964695</v>
+      </c>
+      <c r="N6" t="n">
         <v>671018.7088319816</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>671018.7088319816</v>
+      </c>
+      <c r="P6" t="n">
         <v>671018.7088319814</v>
-      </c>
-      <c r="J6" t="n">
-        <v>453487.5064347037</v>
-      </c>
-      <c r="K6" t="n">
-        <v>655106.336465169</v>
-      </c>
-      <c r="L6" t="n">
-        <v>674534.0544587998</v>
-      </c>
-      <c r="M6" t="n">
-        <v>589479.026523289</v>
-      </c>
-      <c r="N6" t="n">
-        <v>674534.0544587995</v>
-      </c>
-      <c r="O6" t="n">
-        <v>674534.0544588009</v>
-      </c>
-      <c r="P6" t="n">
-        <v>671018.7088319813</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>295.2578325132403</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>277.1882025855016</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>83.94824009307474</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>85.25227508126147</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>61.44380221782455</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.99690417166707</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>21.91936116480045</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>381.737742981588</v>
+        <v>135.3794805373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>132.8338522886471</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>126.4053006126466</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29101,10 +29103,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31835,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312103</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33031,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,25 +33499,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181832</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867659</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961649</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820672.18867549</v>
+        <v>3816659.578661496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7385987.074906804</v>
+        <v>7385987.074906803</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>315.0833133550128</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>50.56405588463325</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>64.66723292513761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>320.4865678544372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>191.6758472350571</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>167.8496641666414</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>275.5422451161535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>160.0317554412378</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.78162072956529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>116.6807033268979</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>75.55208621972962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>92.20984583428708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>114.932220804165</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.57619040703568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>206.4851923430333</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.9927435506645</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.07147829118261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>53.22824985092721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>101.0545458193598</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.230107519843</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2704.732124870452</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2704.732124870452</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609372</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201672</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>523.9612719922603</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201672</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201672</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2283.102991989294</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C5" t="n">
-        <v>1914.140475048882</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="D5" t="n">
-        <v>1555.874776442131</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1010.690487277653</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>599.7045824880456</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>661.511433255873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>661.511433255873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>661.511433255873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>661.511433255873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>661.511433255873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>433.5218823578557</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>2209.232076102164</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1482.003860555002</v>
       </c>
       <c r="E8" t="n">
-        <v>1095.404020490882</v>
+        <v>1096.215607956758</v>
       </c>
       <c r="F8" t="n">
-        <v>684.4181157012742</v>
+        <v>685.2297031671503</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>270.1572530121468</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.3430949700587</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>229.3430949700587</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.9915598002984</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694706</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153951</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305899</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650097</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.17289944421</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W22" t="n">
-        <v>3804.031641025738</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>3576.042090127721</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984191</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571558</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159222</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673038</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467151</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569134</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.272600329704</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6317,13 +6317,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3093.254426444652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2924.318243516745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3723.68502131644</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3723.68502131644</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3495.695470418422</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3274.902891274892</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3031.88921499615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6721,19 +6721,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>614.6217844681063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.687952571559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3945.535717480307</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3656.118547443346</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3428.128996545328</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3207.336417401798</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408906</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.887784772826</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2125.286319795768</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473698</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194629</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071272</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>596.0507082071272</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>449.1607607092168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.93476969131441</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.9709121168614</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>194.3131525023039</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.0084629450591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.65245098079473</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.83923663127278</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.76050189075468</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>198.9093934729008</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>79.9717401822848</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>35.29403077242583</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.3259550378</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
         <v>786967.934697756</v>
@@ -26352,10 +26352,10 @@
         <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405249</v>
-      </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26438,7 +26438,7 @@
         <v>14826.69604186741</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753623</v>
+        <v>-729759.7047753625</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.0409522298</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.04095223</v>
       </c>
       <c r="E6" t="n">
-        <v>345606.2470246262</v>
+        <v>345258.867770269</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319813</v>
+        <v>670671.3295776244</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776244</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776242</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319818</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="J6" t="n">
-        <v>453487.506434704</v>
+        <v>453140.1271803466</v>
       </c>
       <c r="K6" t="n">
-        <v>671018.7088319815</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="L6" t="n">
-        <v>671018.7088319812</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="M6" t="n">
-        <v>585963.6808964695</v>
+        <v>585616.3016421124</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319816</v>
+        <v>670671.3295776247</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319816</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319814</v>
+        <v>670671.3295776247</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>66.84705671724896</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>277.1882025855016</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.94824009307474</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.44380221782455</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>219.2458784183963</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.26439296306545</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>21.91936116480045</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>135.3794805373</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>134.5760089460827</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>132.8338522886471</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28389,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29103,10 +29103,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31840,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>424.0909547148531</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,31 +32788,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>652.3203287778407</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>314.3020503687028</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34380,13 +34380,13 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>281.4947102704086</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,31 +36436,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>90.01966967204032</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>520.9786166945074</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>171.7058059242583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3816659.578661496</v>
+        <v>3818420.108964283</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="E2" t="n">
-        <v>315.0833133550128</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386407</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>191.6758472350571</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>256.3954768515557</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0317554412378</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.95687341106361</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.36981422367014</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>114.932220804165</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>77.9361200972557</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161906772</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223197</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.833343223197</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1252.833343223197</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4470,67 +4470,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
         <v>862.0164446829692</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482648</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>1754.744438482648</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D5" t="n">
-        <v>1396.478739875897</v>
+        <v>1133.303650087721</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.690487277653</v>
+        <v>747.515397489477</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7045824880456</v>
+        <v>336.5294926998694</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>325.49744658527</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.34427854677</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902781</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779424</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955492</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976389</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723578</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3283057723578</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2209.232076102164</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1840.269559161753</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1482.003860555002</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1096.215607956758</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>685.2297031671503</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>270.1572530121468</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.497868668702</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4883,22 +4883,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>298.5283065529154</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>156.8164753951134</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408905</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2095.308724111328</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711303</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6885,10 +6885,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
         <v>484.8112968429803</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>139.4693302300326</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393101</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176753</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
@@ -26435,13 +26435,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186742</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-729759.7047753625</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522298</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="E6" t="n">
-        <v>345258.867770269</v>
+        <v>345571.5090991901</v>
       </c>
       <c r="F6" t="n">
-        <v>670671.3295776244</v>
+        <v>670983.9709065459</v>
       </c>
       <c r="G6" t="n">
-        <v>670671.3295776244</v>
+        <v>670983.970906546</v>
       </c>
       <c r="H6" t="n">
-        <v>670671.3295776242</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="I6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="J6" t="n">
-        <v>453140.1271803466</v>
+        <v>453452.7685092684</v>
       </c>
       <c r="K6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="L6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="M6" t="n">
-        <v>585616.3016421124</v>
+        <v>585928.9429710339</v>
       </c>
       <c r="N6" t="n">
-        <v>670671.3295776247</v>
+        <v>670983.9709065459</v>
       </c>
       <c r="O6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065459</v>
       </c>
       <c r="P6" t="n">
-        <v>670671.3295776247</v>
+        <v>670983.9709065458</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>279.2259094596464</v>
       </c>
       <c r="E2" t="n">
-        <v>66.84705671724896</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282307</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>219.2458784183963</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.21228753576474</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.26439296306545</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>134.5760089460827</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>94.23088837711222</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.8817498053001</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34149,13 +34149,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34386,13 +34386,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
